--- a/DatasetList/repo_non-flaky.xlsx
+++ b/DatasetList/repo_non-flaky.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haha9\Documents\GitHub\quantum-flakiness-ml\DatasetList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D7C2CD-6E51-4B7F-AE75-B7C33D9E887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17F961F-BA74-49FE-93E5-D5022F8F138B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="30" windowWidth="22950" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1380" windowWidth="22950" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="353">
   <si>
     <t>Repo Name</t>
   </si>
@@ -91,9 +91,6 @@
     <t>https://github.com/Qiskit/qiskit/issues/1381</t>
   </si>
   <si>
-    <t>https://github.com/Qiskit/qiskit/issues/1027</t>
-  </si>
-  <si>
     <t>https://github.com/Qiskit/qiskit/issues/1134</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>https://github.com/Qiskit/qiskit/issues/781</t>
   </si>
   <si>
-    <t>https://github.com/Qiskit/qiskit/issues/1207</t>
-  </si>
-  <si>
     <t>https://github.com/Qiskit/qiskit/issues/929</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>1381</t>
   </si>
   <si>
-    <t>1027</t>
-  </si>
-  <si>
     <t>1134</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>781</t>
   </si>
   <si>
-    <t>1207</t>
-  </si>
-  <si>
     <t>929</t>
   </si>
   <si>
@@ -379,9 +367,6 @@
     <t>c0da39ac1f173daf4ed06de7d5ce9dddce30ca15</t>
   </si>
   <si>
-    <t>0bb7b26c4d2b30aa8bc3e3b5fd49454a8d56822a</t>
-  </si>
-  <si>
     <t>7e2204c7f046ad324e1726ad320f0323bdd26e87</t>
   </si>
   <si>
@@ -394,9 +379,6 @@
     <t>09af5d7566345355d52454e7f3c5e1cc7da3cb16</t>
   </si>
   <si>
-    <t>3b44c5ff03822090228f07932b5e7178cc5db88d</t>
-  </si>
-  <si>
     <t>ce2fcfd32f8c3b6ee663c8a357df712d95ebea52</t>
   </si>
   <si>
@@ -821,6 +803,282 @@
   </si>
   <si>
     <t>qiskit_tools_visualization__matplotlib</t>
+  </si>
+  <si>
+    <t>examples_python_ghz</t>
+  </si>
+  <si>
+    <t>examples_python_hello_quantum</t>
+  </si>
+  <si>
+    <t>examples_python_qft</t>
+  </si>
+  <si>
+    <t>examples_python_using_qiskit_terra_level_0</t>
+  </si>
+  <si>
+    <t>examples_python_using_qiskit_terra_level_1</t>
+  </si>
+  <si>
+    <t>examples_python_using_qiskit_terra_level_2</t>
+  </si>
+  <si>
+    <t>qiskit___init__</t>
+  </si>
+  <si>
+    <t>qiskit_backends_ibmq_ibmqjob</t>
+  </si>
+  <si>
+    <t>qiskit_transpiler__transpiler</t>
+  </si>
+  <si>
+    <t>qiskit_wrapper__wrapper</t>
+  </si>
+  <si>
+    <t>test_python_aer_test_extensions_simulator</t>
+  </si>
+  <si>
+    <t>test_python_aer_test_qasm_simulator</t>
+  </si>
+  <si>
+    <t>test_python_aer_test_simulator_interfaces</t>
+  </si>
+  <si>
+    <t>test_python_ibmq_test_ibmqjob</t>
+  </si>
+  <si>
+    <t>test_python_test_compiler</t>
+  </si>
+  <si>
+    <t>test_python_test_file_io</t>
+  </si>
+  <si>
+    <t>test_python_test_identifiers</t>
+  </si>
+  <si>
+    <t>test_python_test_initializer</t>
+  </si>
+  <si>
+    <t>test_python_test_reordering</t>
+  </si>
+  <si>
+    <t>test_python_test_transpiler</t>
+  </si>
+  <si>
+    <t>test_python_test_wrapper</t>
+  </si>
+  <si>
+    <t>test_python_transpiler_test_pass_scheduler</t>
+  </si>
+  <si>
+    <t>qiskit_transpiler__basepasses</t>
+  </si>
+  <si>
+    <t>test_performance_transpiler_speed_state_tomography</t>
+  </si>
+  <si>
+    <t>test_performance_transpiler_speed_vqe</t>
+  </si>
+  <si>
+    <t>test_python_test_qasm_simulator_cpp</t>
+  </si>
+  <si>
+    <t>qiskit_transpiler__parallel</t>
+  </si>
+  <si>
+    <t>test_python_test_parallel</t>
+  </si>
+  <si>
+    <t>qiskit_backends_ibmq_ibmqbackend</t>
+  </si>
+  <si>
+    <t>test_python_test_ibmqjob_states</t>
+  </si>
+  <si>
+    <t>test_python_test_quantumprogram</t>
+  </si>
+  <si>
+    <t>test_python_common</t>
+  </si>
+  <si>
+    <t>qiskit__result</t>
+  </si>
+  <si>
+    <t>test_python_test_unitary_simulator_py</t>
+  </si>
+  <si>
+    <t>examples_python_rippleadd</t>
+  </si>
+  <si>
+    <t>examples_python_rippleadd-async</t>
+  </si>
+  <si>
+    <t>examples_python_sympy_backends</t>
+  </si>
+  <si>
+    <t>examples_python_teleport</t>
+  </si>
+  <si>
+    <t>qiskit__compiler</t>
+  </si>
+  <si>
+    <t>qiskit__jobprocessor</t>
+  </si>
+  <si>
+    <t>qiskit__quantumjob</t>
+  </si>
+  <si>
+    <t>qiskit__quantumprogram</t>
+  </si>
+  <si>
+    <t>qiskit_backends_basebackend</t>
+  </si>
+  <si>
+    <t>qiskit_backends_baseprovider</t>
+  </si>
+  <si>
+    <t>qiskit_backends_ibmq_ibmqprovider</t>
+  </si>
+  <si>
+    <t>qiskit_backends_local_localprovider</t>
+  </si>
+  <si>
+    <t>qiskit_backends_local_qasm_simulator_cpp</t>
+  </si>
+  <si>
+    <t>qiskit_backends_local_qasm_simulator_projectq</t>
+  </si>
+  <si>
+    <t>qiskit_backends_local_qasm_simulator_py</t>
+  </si>
+  <si>
+    <t>qiskit_backends_local_statevector_simulator_sympy</t>
+  </si>
+  <si>
+    <t>qiskit_backends_local_unitary_simulator_py</t>
+  </si>
+  <si>
+    <t>qiskit_backends_local_unitary_simulator_sympy</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_qiskit_simulator_noise</t>
+  </si>
+  <si>
+    <t>qiskit__classicalregister</t>
+  </si>
+  <si>
+    <t>qiskit__instruction</t>
+  </si>
+  <si>
+    <t>qiskit__measure</t>
+  </si>
+  <si>
+    <t>qiskit__quantumcircuit</t>
+  </si>
+  <si>
+    <t>qiskit__quantumregister</t>
+  </si>
+  <si>
+    <t>qiskit__register</t>
+  </si>
+  <si>
+    <t>qiskit__reset</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_barrier</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_ccx</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_ch</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_crz</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_cswap</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_cu1</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_cu3</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_cx</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_cxbase</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_cy</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_cz</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_h</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_iden</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_rx</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_ry</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_rz</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_swap</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_t</t>
+  </si>
+  <si>
+    <t>qiskit_extensions_standard_u0</t>
+  </si>
+  <si>
+    <t>qiskit_qasm__qasm</t>
+  </si>
+  <si>
+    <t>qiskit_qasm__qasmlexer</t>
+  </si>
+  <si>
+    <t>qiskit_qasm__qasmparser</t>
+  </si>
+  <si>
+    <t>test_python_test_qasm_parser</t>
+  </si>
+  <si>
+    <t>qiskit__qiskiterror</t>
+  </si>
+  <si>
+    <t>qiskit__resulterror</t>
+  </si>
+  <si>
+    <t>qiskit_tools_apps_fermion</t>
+  </si>
+  <si>
+    <t>qiskit_tools_apps_optimization</t>
+  </si>
+  <si>
+    <t>test_python_test_apps</t>
+  </si>
+  <si>
+    <t>test_python_test_jsonoutput</t>
+  </si>
+  <si>
+    <t>test_python_test_local_simulator</t>
+  </si>
+  <si>
+    <t>test_python_test_qasm_python_simulator</t>
+  </si>
+  <si>
+    <t>test_python_test_unitary_python_simulator</t>
   </si>
 </sst>
 </file>
@@ -866,7 +1124,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,9 +1177,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -931,6 +1187,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1236,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A174" activeCellId="1" sqref="A173:XFD173 A174:XFD174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,348 +1521,348 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1612,16 +1870,16 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1629,16 +1887,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1646,16 +1904,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,16 +1921,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,16 +1938,16 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,16 +1955,16 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1714,16 +1972,16 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1731,16 +1989,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1748,16 +2006,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1765,16 +2023,16 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1782,16 +2040,16 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1799,16 +2057,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1816,16 +2074,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1833,16 +2091,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1850,16 +2108,16 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,16 +2125,16 @@
         <v>4</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1884,16 +2142,16 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1901,16 +2159,16 @@
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,16 +2176,16 @@
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1935,16 +2193,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1955,13 +2213,13 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1972,13 +2230,13 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1989,13 +2247,13 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2006,13 +2264,13 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,14 +2280,14 @@
       <c r="B46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="4">
         <v>2101</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>193</v>
+      <c r="D46" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2037,16 +2295,16 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2054,16 +2312,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2071,16 +2329,16 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2088,16 +2346,16 @@
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2105,16 +2363,16 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2122,16 +2380,16 @@
         <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2139,16 +2397,16 @@
         <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,16 +2414,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,13 +2434,13 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,13 +2451,13 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,13 +2468,13 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2227,13 +2485,13 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2244,13 +2502,13 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2261,13 +2519,13 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,13 +2536,13 @@
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,13 +2553,13 @@
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,13 +2570,13 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,13 +2587,13 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2346,13 +2604,13 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2363,13 +2621,13 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,13 +2638,13 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,13 +2655,13 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,13 +2672,13 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,13 +2689,13 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2448,13 +2706,13 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,13 +2723,13 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2482,13 +2740,13 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2496,16 +2754,16 @@
         <v>4</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2513,16 +2771,16 @@
         <v>4</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E75" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,16 +2788,16 @@
         <v>4</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2547,16 +2805,16 @@
         <v>4</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2564,16 +2822,16 @@
         <v>4</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2584,13 +2842,13 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2600,14 +2858,14 @@
       <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="6">
         <v>1628</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,13 +2876,13 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2635,13 +2893,13 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,13 +2910,13 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E83" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2669,13 +2927,13 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E84" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,13 +2944,13 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,13 +2961,13 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E86" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,13 +2978,13 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,13 +2995,13 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E88" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,13 +3012,13 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E89" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,13 +3029,13 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,13 +3046,13 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,13 +3063,13 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E92" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2822,13 +3080,13 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2839,13 +3097,13 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2856,13 +3114,13 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2873,13 +3131,13 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E96" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2890,13 +3148,13 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E97" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2907,13 +3165,13 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,13 +3182,13 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,13 +3199,13 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D100" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E100" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,13 +3216,13 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E101" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2975,13 +3233,13 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E102" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2992,13 +3250,13 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D103" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E103" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,13 +3267,13 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D104" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E104" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3026,13 +3284,13 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E105" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3043,13 +3301,13 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E106" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,13 +3318,13 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D107" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E107" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,13 +3335,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E108" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3094,13 +3352,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D109" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E109" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,13 +3369,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D110" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E110" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3128,13 +3386,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D111" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E111" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3145,13 +3403,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D112" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E112" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3162,13 +3420,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D113" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E113" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,13 +3437,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D114" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E114" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,13 +3454,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D115" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E115" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,13 +3471,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D116" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E116" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3230,13 +3488,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D117" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E117" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3247,13 +3505,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E118" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3264,13 +3522,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D119" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E119" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3281,13 +3539,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D120" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E120" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3298,13 +3556,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D121" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E121" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3315,13 +3573,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D122" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E122" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3332,13 +3590,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D123" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E123" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3349,13 +3607,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D124" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E124" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3366,13 +3624,13 @@
         <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E125" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,13 +3641,13 @@
         <v>22</v>
       </c>
       <c r="C126" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D126" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E126" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,16 +3655,16 @@
         <v>4</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C127" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D127" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E127" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3414,16 +3672,16 @@
         <v>4</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C128" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D128" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E128" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3431,16 +3689,16 @@
         <v>4</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C129" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D129" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E129" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3448,16 +3706,16 @@
         <v>4</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D130" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E130" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3465,16 +3723,16 @@
         <v>4</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D131" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E131" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,13 +3740,16 @@
         <v>4</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D132" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="E132" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3496,13 +3757,16 @@
         <v>4</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C133" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D133" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E133" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3510,13 +3774,16 @@
         <v>4</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C134" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D134" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E134" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3524,13 +3791,16 @@
         <v>4</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C135" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D135" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E135" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,13 +3808,16 @@
         <v>4</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C136" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E136" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3552,13 +3825,16 @@
         <v>4</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C137" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E137" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3566,13 +3842,16 @@
         <v>4</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D138" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E138" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,13 +3859,16 @@
         <v>4</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E139" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,13 +3876,16 @@
         <v>4</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D140" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E140" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,13 +3893,16 @@
         <v>4</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D141" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E141" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,13 +3910,16 @@
         <v>4</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D142" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E142" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3636,13 +3927,16 @@
         <v>4</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D143" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="E143" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,436 +3944,529 @@
         <v>4</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D144" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E144" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>4</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D145" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E145" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>4</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C146" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D146" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E146" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D147" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E147" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C148" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D148" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E148" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C149" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D149" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E149" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>4</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C150" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D150" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E150" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>4</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C151" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D151" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E151" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>4</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C152" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D152" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E152" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D153" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E153" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>4</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D154" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E154" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C155" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D155" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E155" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C156" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D156" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C157" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D157" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="E157" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C158" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D158" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="E158" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C159" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D159" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E159" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C160" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D160" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E160" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C161" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="C161" s="4">
+        <v>944</v>
       </c>
       <c r="D161" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E161" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C162" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D162" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="E162" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>4</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D163" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>4</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" t="s">
+        <v>72</v>
+      </c>
+      <c r="D164" t="s">
+        <v>118</v>
+      </c>
+      <c r="E164" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C165" t="s">
+        <v>72</v>
+      </c>
+      <c r="D165" t="s">
+        <v>118</v>
+      </c>
+      <c r="E165" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" t="s">
+        <v>72</v>
+      </c>
+      <c r="D166" t="s">
+        <v>118</v>
+      </c>
+      <c r="E166" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" t="s">
+        <v>72</v>
+      </c>
+      <c r="D167" t="s">
+        <v>118</v>
+      </c>
+      <c r="E167" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C168" t="s">
+        <v>89</v>
+      </c>
+      <c r="D168" t="s">
+        <v>135</v>
+      </c>
+      <c r="E168" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C164" t="s">
-        <v>88</v>
-      </c>
-      <c r="D164" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C165" t="s">
-        <v>77</v>
-      </c>
-      <c r="D165" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C166" t="s">
-        <v>77</v>
-      </c>
-      <c r="D166" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C167" t="s">
-        <v>77</v>
-      </c>
-      <c r="D167" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C168" t="s">
-        <v>75</v>
-      </c>
-      <c r="D168" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C169" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D169" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E169" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C170" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D170" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E170" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D171" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E171" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>4</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D172" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E172" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D173" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E173" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D174" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E174" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4087,13 +4474,16 @@
         <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D175" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E175" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4101,13 +4491,16 @@
         <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D176" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E176" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4115,13 +4508,16 @@
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D177" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E177" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4129,13 +4525,16 @@
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D178" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E178" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4143,13 +4542,16 @@
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D179" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E179" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4157,13 +4559,16 @@
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D180" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E180" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4171,13 +4576,16 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D181" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E181" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4185,13 +4593,16 @@
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D182" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E182" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4199,13 +4610,16 @@
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D183" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E183" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4213,13 +4627,16 @@
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D184" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E184" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -4227,13 +4644,16 @@
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D185" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E185" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4241,13 +4661,16 @@
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D186" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E186" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -4255,13 +4678,16 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D187" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E187" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4269,13 +4695,16 @@
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D188" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E188" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4283,13 +4712,16 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D189" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E189" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -4297,13 +4729,16 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D190" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E190" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4311,13 +4746,16 @@
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D191" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E191" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4325,41 +4763,50 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D192" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="E192" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D193" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E193" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D194" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E194" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4367,13 +4814,16 @@
         <v>12</v>
       </c>
       <c r="C195" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D195" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E195" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4381,13 +4831,16 @@
         <v>12</v>
       </c>
       <c r="C196" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D196" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E196" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4395,13 +4848,16 @@
         <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D197" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E197" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4409,13 +4865,16 @@
         <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D198" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E198" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4423,13 +4882,16 @@
         <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D199" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E199" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4437,13 +4899,16 @@
         <v>12</v>
       </c>
       <c r="C200" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D200" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E200" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4451,13 +4916,16 @@
         <v>12</v>
       </c>
       <c r="C201" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D201" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E201" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4465,13 +4933,16 @@
         <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D202" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E202" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4479,13 +4950,16 @@
         <v>12</v>
       </c>
       <c r="C203" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D203" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E203" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -4493,13 +4967,16 @@
         <v>12</v>
       </c>
       <c r="C204" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D204" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E204" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -4507,13 +4984,16 @@
         <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D205" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E205" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -4521,13 +5001,16 @@
         <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D206" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E206" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -4535,13 +5018,16 @@
         <v>12</v>
       </c>
       <c r="C207" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D207" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E207" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -4549,13 +5035,16 @@
         <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D208" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E208" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -4563,13 +5052,16 @@
         <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D209" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E209" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -4577,13 +5069,16 @@
         <v>12</v>
       </c>
       <c r="C210" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D210" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E210" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -4591,13 +5086,16 @@
         <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D211" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E211" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -4605,13 +5103,16 @@
         <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D212" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E212" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -4619,13 +5120,16 @@
         <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D213" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E213" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -4633,13 +5137,16 @@
         <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D214" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E214" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -4647,13 +5154,16 @@
         <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D215" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E215" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -4661,13 +5171,16 @@
         <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D216" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E216" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -4675,13 +5188,16 @@
         <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D217" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E217" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -4689,13 +5205,16 @@
         <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D218" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E218" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -4703,13 +5222,16 @@
         <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D219" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E219" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -4717,13 +5239,16 @@
         <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D220" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E220" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -4731,13 +5256,16 @@
         <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D221" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E221" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -4745,13 +5273,16 @@
         <v>12</v>
       </c>
       <c r="C222" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D222" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E222" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -4759,27 +5290,33 @@
         <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D223" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E223" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D224" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E224" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -4787,13 +5324,16 @@
         <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D225" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E225" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4801,13 +5341,16 @@
         <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D226" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E226" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -4815,27 +5358,33 @@
         <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D227" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E227" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>4</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D228" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -4843,225 +5392,256 @@
         <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D229" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="E229" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C230" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D230" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E230" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C231" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D231" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E231" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C232" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D232" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E232" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C233" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D233" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E233" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C234" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D234" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E234" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>4</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C235" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D235" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="E235" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C236" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D236" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="E236" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C237" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D237" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E237" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C238" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D238" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E238" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C239" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D239" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E239" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C240" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D240" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E240" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C241" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D241" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E241" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C242" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D242" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E242" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C243" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D243" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>4</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C244" t="s">
-        <v>97</v>
-      </c>
-      <c r="D244" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D244">
-    <sortCondition descending="1" ref="C2:C244"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D243">
+    <sortCondition descending="1" ref="C2:C243"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B79" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5093,10 +5673,10 @@
     <hyperlink ref="B105" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="B106" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
     <hyperlink ref="B107" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B225" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B226" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B227" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B228" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B224" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B225" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B226" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B227" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="B108" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="B109" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
     <hyperlink ref="B110" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
@@ -5113,63 +5693,63 @@
     <hyperlink ref="B121" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="B122" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="B124" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B175" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B176" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B177" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B178" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B179" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B180" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B181" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B182" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B183" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B184" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B185" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B186" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B187" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B188" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B189" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B190" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B191" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B192" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B193" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B171" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B172" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B173" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B174" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B175" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B176" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B177" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B178" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B179" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B180" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B181" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B182" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B183" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B184" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B185" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B186" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B187" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B189" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B192" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="B43" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="B44" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="B45" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B229" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B230" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B195" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B196" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B197" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B198" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B199" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B200" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B201" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B202" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B203" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B204" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B205" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B206" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B207" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B208" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B209" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B210" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B211" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B212" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B213" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B214" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B215" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B216" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B217" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B218" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B219" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B220" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B221" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B222" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B223" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B224" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B228" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B229" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B194" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B195" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B196" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B197" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B198" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B199" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B200" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B201" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B202" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B203" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B204" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B205" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B206" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B207" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B208" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B209" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B210" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B211" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B212" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B213" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B214" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B215" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B216" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B217" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B218" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B219" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B220" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B221" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B222" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B223" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
     <hyperlink ref="B72" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
     <hyperlink ref="B73" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B194" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B193" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="B42" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="B55" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="B56" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
@@ -5196,117 +5776,116 @@
     <hyperlink ref="B6" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
     <hyperlink ref="B4" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
     <hyperlink ref="B126" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B163" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B133" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B134" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B135" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B136" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B137" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B138" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B139" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B140" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B141" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B142" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B143" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B144" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B145" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B146" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B147" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B148" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B149" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B150" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B151" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B152" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B153" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B154" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B155" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B156" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B157" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B158" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B159" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B160" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B161" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B41" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B28" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B29" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B30" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B31" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B32" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B33" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B34" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B35" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B36" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B37" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B168" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B169" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B170" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B171" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B132" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B165" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B166" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B167" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B39" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B40" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B38" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B11" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B12" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B13" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B14" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B15" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B236" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B237" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B3" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B53" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B54" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B18" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B19" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B2" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B52" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B9" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B10" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B164" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B235" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B21" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B22" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B23" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B24" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B25" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B26" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B27" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B16" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B172" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B48" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B49" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B50" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B51" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B74" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B75" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B76" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B77" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B130" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B131" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B238" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B239" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B240" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B241" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B242" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B243" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B244" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B17" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B162" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B47" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B127" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B128" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B129" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B46" r:id="rId239" xr:uid="{C1B77AE4-21F0-4285-902F-07EDFABBE93B}"/>
-    <hyperlink ref="B78" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B123" r:id="rId241" xr:uid="{B5C2509F-B32D-4134-83FD-1D6037C69E2F}"/>
-    <hyperlink ref="B174" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B173" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B132" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B133" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B134" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B135" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B136" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B137" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B138" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B139" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B140" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B141" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B142" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B143" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B144" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B145" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B146" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B147" r:id="rId148" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B148" r:id="rId149" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B149" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B150" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B151" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B152" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B153" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B154" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B155" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B156" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B157" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B41" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B28" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B29" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B30" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B31" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B32" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B33" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B34" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B35" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B36" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B37" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B164" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B165" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B166" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B167" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B162" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B163" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B39" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B40" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B38" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B11" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B12" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B13" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B14" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B15" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B235" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B236" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B3" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B53" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B54" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B18" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B19" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B2" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B52" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B9" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B10" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B161" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B230" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B231" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B232" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B233" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B234" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B21" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B22" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B23" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B24" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B25" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B26" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B27" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B16" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B168" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B48" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B49" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B50" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B51" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B74" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B75" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B76" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B77" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B130" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B131" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B237" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B238" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B239" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B240" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B241" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B242" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B243" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B17" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B158" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B47" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B127" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B128" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B129" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B46" r:id="rId233" xr:uid="{C1B77AE4-21F0-4285-902F-07EDFABBE93B}"/>
+    <hyperlink ref="B78" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B123" r:id="rId235" xr:uid="{B5C2509F-B32D-4134-83FD-1D6037C69E2F}"/>
+    <hyperlink ref="B170" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B169" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B159" r:id="rId238" xr:uid="{DACB6B0A-AC09-49AD-BAFA-6E80F971F602}"/>
+    <hyperlink ref="B160" r:id="rId239" xr:uid="{1E8E3A58-62F0-4CBD-80F1-15436BEB2C93}"/>
+    <hyperlink ref="B188" r:id="rId240" xr:uid="{3B798D77-64FF-47C1-B448-C8254A63CA06}"/>
+    <hyperlink ref="B190" r:id="rId241" xr:uid="{6121E042-EAA5-49CA-AEAD-87C9C6B2EBBE}"/>
+    <hyperlink ref="B191" r:id="rId242" xr:uid="{CBEF2741-818C-4FE1-B56B-B9AB91985145}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
